--- a/Assessment Data Upper County Bareland 2008-2013 Filtered.xlsx
+++ b/Assessment Data Upper County Bareland 2008-2013 Filtered.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wasse\Documents\CWU\KittCo Well Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wasse\Documents\CWU\KittCo Well Paper\KittCo-Assessment-Regressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Barren_Land_Wide_valueJan27" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Barren_Land_Wide_valueJan27!$A$1:$W$397</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Barren_Land_Wide_valueJan27!$A$1:$T$361</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>ParcelNumber</t>
   </si>
@@ -80,11 +80,17 @@
   <si>
     <t>Drop_09.10</t>
   </si>
+  <si>
+    <t>Drop_10.11</t>
+  </si>
+  <si>
+    <t>Drop_09.11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -919,11 +925,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R361"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +944,7 @@
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -993,8 +999,14 @@
       <c r="R1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10667</v>
       </c>
@@ -1047,11 +1059,19 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R65" si="0">IF(H2&lt;G2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R2:S65" si="0">IF(H2&lt;G2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>SUM(R2:S2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10923</v>
       </c>
@@ -1107,8 +1127,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="1">SUM(R3:S3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11252</v>
       </c>
@@ -1164,8 +1192,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11382</v>
       </c>
@@ -1221,8 +1257,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11848</v>
       </c>
@@ -1278,8 +1322,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11914</v>
       </c>
@@ -1335,8 +1387,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12544</v>
       </c>
@@ -1392,8 +1452,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13178</v>
       </c>
@@ -1449,8 +1517,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13255</v>
       </c>
@@ -1506,8 +1582,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13504</v>
       </c>
@@ -1563,8 +1647,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13554</v>
       </c>
@@ -1620,8 +1712,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14087</v>
       </c>
@@ -1677,8 +1777,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14732</v>
       </c>
@@ -1734,8 +1842,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15185</v>
       </c>
@@ -1791,8 +1907,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15814</v>
       </c>
@@ -1848,8 +1972,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15815</v>
       </c>
@@ -1905,8 +2037,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15816</v>
       </c>
@@ -1962,8 +2102,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15819</v>
       </c>
@@ -2019,8 +2167,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15823</v>
       </c>
@@ -2076,8 +2232,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17012</v>
       </c>
@@ -2133,8 +2297,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17018</v>
       </c>
@@ -2190,8 +2362,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17021</v>
       </c>
@@ -2247,8 +2427,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17586</v>
       </c>
@@ -2304,8 +2492,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17677</v>
       </c>
@@ -2361,8 +2557,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>17693</v>
       </c>
@@ -2418,8 +2622,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17698</v>
       </c>
@@ -2475,8 +2687,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17699</v>
       </c>
@@ -2532,8 +2752,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>17700</v>
       </c>
@@ -2589,8 +2817,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>17701</v>
       </c>
@@ -2646,8 +2882,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>17702</v>
       </c>
@@ -2703,8 +2947,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>17819</v>
       </c>
@@ -2760,8 +3012,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>17829</v>
       </c>
@@ -2817,8 +3077,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>18172</v>
       </c>
@@ -2874,8 +3142,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>18400</v>
       </c>
@@ -2931,8 +3207,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>18403</v>
       </c>
@@ -2988,8 +3272,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>18415</v>
       </c>
@@ -3045,8 +3337,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>18417</v>
       </c>
@@ -3102,8 +3402,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>18823</v>
       </c>
@@ -3159,8 +3467,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>18825</v>
       </c>
@@ -3216,8 +3532,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>18839</v>
       </c>
@@ -3273,8 +3597,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>18843</v>
       </c>
@@ -3330,8 +3662,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>18863</v>
       </c>
@@ -3387,8 +3727,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>18866</v>
       </c>
@@ -3444,8 +3792,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>18876</v>
       </c>
@@ -3501,8 +3857,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>18878</v>
       </c>
@@ -3558,8 +3922,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>18882</v>
       </c>
@@ -3615,8 +3987,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>18885</v>
       </c>
@@ -3672,8 +4052,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>18892</v>
       </c>
@@ -3729,8 +4117,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>18895</v>
       </c>
@@ -3786,8 +4182,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>18923</v>
       </c>
@@ -3843,8 +4247,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>18924</v>
       </c>
@@ -3900,8 +4312,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>18935</v>
       </c>
@@ -3957,8 +4377,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18945</v>
       </c>
@@ -4014,8 +4442,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>18951</v>
       </c>
@@ -4071,8 +4507,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>18956</v>
       </c>
@@ -4128,8 +4572,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>18960</v>
       </c>
@@ -4185,8 +4637,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>18964</v>
       </c>
@@ -4242,8 +4702,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>18971</v>
       </c>
@@ -4299,8 +4767,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>18996</v>
       </c>
@@ -4356,8 +4832,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>19005</v>
       </c>
@@ -4413,8 +4897,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>19011</v>
       </c>
@@ -4470,8 +4962,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>19023</v>
       </c>
@@ -4527,8 +5027,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>19043</v>
       </c>
@@ -4584,8 +5092,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>19069</v>
       </c>
@@ -4641,8 +5157,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>19148</v>
       </c>
@@ -4695,11 +5219,19 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R129" si="1">IF(H66&lt;G66,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R66:S129" si="2">IF(H66&lt;G66,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>19400</v>
       </c>
@@ -4752,11 +5284,19 @@
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <f t="shared" ref="T67:T130" si="3">SUM(R67:S67)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>19669</v>
       </c>
@@ -4809,11 +5349,19 @@
         <v>0</v>
       </c>
       <c r="R68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>19700</v>
       </c>
@@ -4866,11 +5414,19 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>19747</v>
       </c>
@@ -4923,11 +5479,19 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>19748</v>
       </c>
@@ -4980,11 +5544,19 @@
         <v>0</v>
       </c>
       <c r="R71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>19751</v>
       </c>
@@ -5037,11 +5609,19 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>19777</v>
       </c>
@@ -5094,11 +5674,19 @@
         <v>0</v>
       </c>
       <c r="R73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>19780</v>
       </c>
@@ -5151,11 +5739,19 @@
         <v>0</v>
       </c>
       <c r="R74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>19788</v>
       </c>
@@ -5208,11 +5804,19 @@
         <v>0</v>
       </c>
       <c r="R75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>19848</v>
       </c>
@@ -5265,11 +5869,19 @@
         <v>0</v>
       </c>
       <c r="R76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>19946</v>
       </c>
@@ -5322,11 +5934,19 @@
         <v>0</v>
       </c>
       <c r="R77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>19947</v>
       </c>
@@ -5379,11 +5999,19 @@
         <v>0</v>
       </c>
       <c r="R78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>19964</v>
       </c>
@@ -5436,11 +6064,19 @@
         <v>0</v>
       </c>
       <c r="R79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>19966</v>
       </c>
@@ -5493,11 +6129,19 @@
         <v>0</v>
       </c>
       <c r="R80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>19967</v>
       </c>
@@ -5550,11 +6194,19 @@
         <v>0</v>
       </c>
       <c r="R81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>19970</v>
       </c>
@@ -5607,11 +6259,19 @@
         <v>0</v>
       </c>
       <c r="R82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>19973</v>
       </c>
@@ -5664,11 +6324,19 @@
         <v>0</v>
       </c>
       <c r="R83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>19990</v>
       </c>
@@ -5721,11 +6389,19 @@
         <v>0</v>
       </c>
       <c r="R84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20006</v>
       </c>
@@ -5778,11 +6454,19 @@
         <v>0</v>
       </c>
       <c r="R85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20007</v>
       </c>
@@ -5835,11 +6519,19 @@
         <v>0</v>
       </c>
       <c r="R86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20008</v>
       </c>
@@ -5892,11 +6584,19 @@
         <v>0</v>
       </c>
       <c r="R87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>20010</v>
       </c>
@@ -5949,11 +6649,19 @@
         <v>0</v>
       </c>
       <c r="R88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20011</v>
       </c>
@@ -6006,11 +6714,19 @@
         <v>0</v>
       </c>
       <c r="R89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>20014</v>
       </c>
@@ -6063,11 +6779,19 @@
         <v>0</v>
       </c>
       <c r="R90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>20034</v>
       </c>
@@ -6120,11 +6844,19 @@
         <v>0</v>
       </c>
       <c r="R91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20266</v>
       </c>
@@ -6177,11 +6909,18 @@
         <v>0</v>
       </c>
       <c r="R92">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20398</v>
       </c>
@@ -6234,11 +6973,19 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20489</v>
       </c>
@@ -6291,11 +7038,19 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>20491</v>
       </c>
@@ -6348,11 +7103,19 @@
         <v>0</v>
       </c>
       <c r="R95">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>20495</v>
       </c>
@@ -6405,11 +7168,19 @@
         <v>0</v>
       </c>
       <c r="R96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20543</v>
       </c>
@@ -6462,11 +7233,19 @@
         <v>850</v>
       </c>
       <c r="R97">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20544</v>
       </c>
@@ -6519,11 +7298,19 @@
         <v>304380</v>
       </c>
       <c r="R98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20851</v>
       </c>
@@ -6576,11 +7363,19 @@
         <v>7500</v>
       </c>
       <c r="R99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20909</v>
       </c>
@@ -6633,11 +7428,19 @@
         <v>0</v>
       </c>
       <c r="R100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20962</v>
       </c>
@@ -6690,11 +7493,19 @@
         <v>7500</v>
       </c>
       <c r="R101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20966</v>
       </c>
@@ -6747,11 +7558,19 @@
         <v>7500</v>
       </c>
       <c r="R102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>21011</v>
       </c>
@@ -6804,11 +7623,19 @@
         <v>10000</v>
       </c>
       <c r="R103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>21012</v>
       </c>
@@ -6861,11 +7688,19 @@
         <v>10000</v>
       </c>
       <c r="R104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>21121</v>
       </c>
@@ -6918,11 +7753,19 @@
         <v>9140</v>
       </c>
       <c r="R105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>21126</v>
       </c>
@@ -6975,11 +7818,19 @@
         <v>0</v>
       </c>
       <c r="R106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>21139</v>
       </c>
@@ -7032,11 +7883,19 @@
         <v>0</v>
       </c>
       <c r="R107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>21426</v>
       </c>
@@ -7089,11 +7948,19 @@
         <v>0</v>
       </c>
       <c r="R108">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>21435</v>
       </c>
@@ -7146,11 +8013,19 @@
         <v>0</v>
       </c>
       <c r="R109">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>21535</v>
       </c>
@@ -7203,11 +8078,19 @@
         <v>0</v>
       </c>
       <c r="R110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>21537</v>
       </c>
@@ -7260,11 +8143,19 @@
         <v>0</v>
       </c>
       <c r="R111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>21539</v>
       </c>
@@ -7317,11 +8208,19 @@
         <v>0</v>
       </c>
       <c r="R112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>21540</v>
       </c>
@@ -7374,11 +8273,19 @@
         <v>0</v>
       </c>
       <c r="R113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>21541</v>
       </c>
@@ -7431,11 +8338,19 @@
         <v>0</v>
       </c>
       <c r="R114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>21542</v>
       </c>
@@ -7488,11 +8403,19 @@
         <v>0</v>
       </c>
       <c r="R115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>21543</v>
       </c>
@@ -7545,11 +8468,19 @@
         <v>0</v>
       </c>
       <c r="R116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>21544</v>
       </c>
@@ -7602,11 +8533,19 @@
         <v>0</v>
       </c>
       <c r="R117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>21545</v>
       </c>
@@ -7659,11 +8598,19 @@
         <v>0</v>
       </c>
       <c r="R118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>21547</v>
       </c>
@@ -7716,11 +8663,19 @@
         <v>0</v>
       </c>
       <c r="R119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>21549</v>
       </c>
@@ -7773,11 +8728,19 @@
         <v>0</v>
       </c>
       <c r="R120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>21551</v>
       </c>
@@ -7830,11 +8793,19 @@
         <v>0</v>
       </c>
       <c r="R121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>21556</v>
       </c>
@@ -7887,11 +8858,19 @@
         <v>0</v>
       </c>
       <c r="R122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>21557</v>
       </c>
@@ -7944,11 +8923,19 @@
         <v>0</v>
       </c>
       <c r="R123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>21558</v>
       </c>
@@ -8001,11 +8988,19 @@
         <v>0</v>
       </c>
       <c r="R124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>21559</v>
       </c>
@@ -8058,11 +9053,19 @@
         <v>0</v>
       </c>
       <c r="R125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>21560</v>
       </c>
@@ -8115,11 +9118,19 @@
         <v>0</v>
       </c>
       <c r="R126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>21561</v>
       </c>
@@ -8172,11 +9183,19 @@
         <v>0</v>
       </c>
       <c r="R127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>21562</v>
       </c>
@@ -8229,11 +9248,19 @@
         <v>0</v>
       </c>
       <c r="R128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>21563</v>
       </c>
@@ -8286,11 +9313,19 @@
         <v>0</v>
       </c>
       <c r="R129">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>21564</v>
       </c>
@@ -8343,11 +9378,19 @@
         <v>0</v>
       </c>
       <c r="R130">
-        <f t="shared" ref="R130:R193" si="2">IF(H130&lt;G130,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R130:S193" si="4">IF(H130&lt;G130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>21565</v>
       </c>
@@ -8400,11 +9443,19 @@
         <v>0</v>
       </c>
       <c r="R131">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <f t="shared" ref="T131:T194" si="5">SUM(R131:S131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>21566</v>
       </c>
@@ -8457,11 +9508,19 @@
         <v>0</v>
       </c>
       <c r="R132">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>21567</v>
       </c>
@@ -8514,11 +9573,19 @@
         <v>0</v>
       </c>
       <c r="R133">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>21568</v>
       </c>
@@ -8571,11 +9638,19 @@
         <v>0</v>
       </c>
       <c r="R134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>21571</v>
       </c>
@@ -8628,11 +9703,19 @@
         <v>0</v>
       </c>
       <c r="R135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>21577</v>
       </c>
@@ -8685,11 +9768,19 @@
         <v>0</v>
       </c>
       <c r="R136">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>21578</v>
       </c>
@@ -8742,11 +9833,19 @@
         <v>0</v>
       </c>
       <c r="R137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>21579</v>
       </c>
@@ -8799,11 +9898,19 @@
         <v>0</v>
       </c>
       <c r="R138">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>21582</v>
       </c>
@@ -8856,11 +9963,19 @@
         <v>0</v>
       </c>
       <c r="R139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>21583</v>
       </c>
@@ -8913,11 +10028,19 @@
         <v>0</v>
       </c>
       <c r="R140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T140">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>21584</v>
       </c>
@@ -8970,11 +10093,19 @@
         <v>0</v>
       </c>
       <c r="R141">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>21585</v>
       </c>
@@ -9027,11 +10158,19 @@
         <v>0</v>
       </c>
       <c r="R142">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>21586</v>
       </c>
@@ -9084,11 +10223,19 @@
         <v>0</v>
       </c>
       <c r="R143">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>21590</v>
       </c>
@@ -9141,11 +10288,19 @@
         <v>0</v>
       </c>
       <c r="R144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>21591</v>
       </c>
@@ -9198,11 +10353,19 @@
         <v>0</v>
       </c>
       <c r="R145">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>21594</v>
       </c>
@@ -9255,11 +10418,19 @@
         <v>0</v>
       </c>
       <c r="R146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>21595</v>
       </c>
@@ -9312,11 +10483,19 @@
         <v>0</v>
       </c>
       <c r="R147">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>21596</v>
       </c>
@@ -9369,11 +10548,19 @@
         <v>0</v>
       </c>
       <c r="R148">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>21597</v>
       </c>
@@ -9426,11 +10613,19 @@
         <v>0</v>
       </c>
       <c r="R149">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>21598</v>
       </c>
@@ -9483,11 +10678,19 @@
         <v>0</v>
       </c>
       <c r="R150">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>21600</v>
       </c>
@@ -9540,11 +10743,19 @@
         <v>0</v>
       </c>
       <c r="R151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>21601</v>
       </c>
@@ -9597,11 +10808,19 @@
         <v>0</v>
       </c>
       <c r="R152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>21603</v>
       </c>
@@ -9654,11 +10873,19 @@
         <v>0</v>
       </c>
       <c r="R153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>21605</v>
       </c>
@@ -9711,11 +10938,19 @@
         <v>0</v>
       </c>
       <c r="R154">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>21610</v>
       </c>
@@ -9768,11 +11003,19 @@
         <v>0</v>
       </c>
       <c r="R155">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S155">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>21611</v>
       </c>
@@ -9825,11 +11068,19 @@
         <v>0</v>
       </c>
       <c r="R156">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S156">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T156">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>21612</v>
       </c>
@@ -9882,11 +11133,19 @@
         <v>0</v>
       </c>
       <c r="R157">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T157">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>21613</v>
       </c>
@@ -9939,11 +11198,19 @@
         <v>0</v>
       </c>
       <c r="R158">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S158">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T158">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>21614</v>
       </c>
@@ -9996,11 +11263,19 @@
         <v>0</v>
       </c>
       <c r="R159">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>21616</v>
       </c>
@@ -10053,11 +11328,19 @@
         <v>0</v>
       </c>
       <c r="R160">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T160">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>21617</v>
       </c>
@@ -10110,11 +11393,19 @@
         <v>0</v>
       </c>
       <c r="R161">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S161">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>21620</v>
       </c>
@@ -10167,11 +11458,19 @@
         <v>0</v>
       </c>
       <c r="R162">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S162">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>21621</v>
       </c>
@@ -10224,11 +11523,19 @@
         <v>0</v>
       </c>
       <c r="R163">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S163">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T163">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>21623</v>
       </c>
@@ -10281,11 +11588,19 @@
         <v>0</v>
       </c>
       <c r="R164">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T164">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>21625</v>
       </c>
@@ -10338,11 +11653,19 @@
         <v>0</v>
       </c>
       <c r="R165">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T165">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>21628</v>
       </c>
@@ -10395,11 +11718,19 @@
         <v>0</v>
       </c>
       <c r="R166">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S166">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T166">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>21630</v>
       </c>
@@ -10452,11 +11783,19 @@
         <v>0</v>
       </c>
       <c r="R167">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T167">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>21638</v>
       </c>
@@ -10509,11 +11848,19 @@
         <v>0</v>
       </c>
       <c r="R168">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S168">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T168">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>21639</v>
       </c>
@@ -10566,11 +11913,19 @@
         <v>0</v>
       </c>
       <c r="R169">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T169">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>21640</v>
       </c>
@@ -10623,11 +11978,19 @@
         <v>0</v>
       </c>
       <c r="R170">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S170">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T170">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>21641</v>
       </c>
@@ -10680,11 +12043,19 @@
         <v>0</v>
       </c>
       <c r="R171">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T171">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>21719</v>
       </c>
@@ -10737,11 +12108,19 @@
         <v>0</v>
       </c>
       <c r="R172">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S172">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T172">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>21726</v>
       </c>
@@ -10794,11 +12173,19 @@
         <v>0</v>
       </c>
       <c r="R173">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>21729</v>
       </c>
@@ -10851,11 +12238,19 @@
         <v>0</v>
       </c>
       <c r="R174">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S174">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T174">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>21736</v>
       </c>
@@ -10908,11 +12303,19 @@
         <v>0</v>
       </c>
       <c r="R175">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>21749</v>
       </c>
@@ -10965,11 +12368,19 @@
         <v>0</v>
       </c>
       <c r="R176">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S176">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T176">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>21751</v>
       </c>
@@ -11022,11 +12433,19 @@
         <v>0</v>
       </c>
       <c r="R177">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T177">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>21753</v>
       </c>
@@ -11079,11 +12498,19 @@
         <v>0</v>
       </c>
       <c r="R178">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T178">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>21755</v>
       </c>
@@ -11136,11 +12563,19 @@
         <v>0</v>
       </c>
       <c r="R179">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T179">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>21757</v>
       </c>
@@ -11193,11 +12628,19 @@
         <v>0</v>
       </c>
       <c r="R180">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T180">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>21758</v>
       </c>
@@ -11250,11 +12693,19 @@
         <v>0</v>
       </c>
       <c r="R181">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T181">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>21759</v>
       </c>
@@ -11307,11 +12758,19 @@
         <v>0</v>
       </c>
       <c r="R182">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T182">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>21760</v>
       </c>
@@ -11364,11 +12823,19 @@
         <v>0</v>
       </c>
       <c r="R183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S183">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T183">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>21761</v>
       </c>
@@ -11421,11 +12888,19 @@
         <v>0</v>
       </c>
       <c r="R184">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T184">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>21762</v>
       </c>
@@ -11478,11 +12953,19 @@
         <v>0</v>
       </c>
       <c r="R185">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S185">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T185">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>21769</v>
       </c>
@@ -11535,11 +13018,19 @@
         <v>0</v>
       </c>
       <c r="R186">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S186">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T186">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>21791</v>
       </c>
@@ -11592,11 +13083,19 @@
         <v>0</v>
       </c>
       <c r="R187">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T187">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>21793</v>
       </c>
@@ -11649,11 +13148,19 @@
         <v>0</v>
       </c>
       <c r="R188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T188">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>21802</v>
       </c>
@@ -11706,11 +13213,19 @@
         <v>0</v>
       </c>
       <c r="R189">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S189">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T189">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>21844</v>
       </c>
@@ -11763,11 +13278,19 @@
         <v>0</v>
       </c>
       <c r="R190">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S190">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T190">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>21846</v>
       </c>
@@ -11820,11 +13343,19 @@
         <v>0</v>
       </c>
       <c r="R191">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S191">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T191">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>21873</v>
       </c>
@@ -11877,11 +13408,19 @@
         <v>0</v>
       </c>
       <c r="R192">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S192">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T192">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>21880</v>
       </c>
@@ -11934,11 +13473,19 @@
         <v>0</v>
       </c>
       <c r="R193">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S193">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T193">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>21884</v>
       </c>
@@ -11991,11 +13538,19 @@
         <v>0</v>
       </c>
       <c r="R194">
-        <f t="shared" ref="R194:R257" si="3">IF(H194&lt;G194,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R194:S257" si="6">IF(H194&lt;G194,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T194">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>21900</v>
       </c>
@@ -12048,11 +13603,19 @@
         <v>0</v>
       </c>
       <c r="R195">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T195">
+        <f t="shared" ref="T195:T258" si="7">SUM(R195:S195)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>21901</v>
       </c>
@@ -12105,11 +13668,19 @@
         <v>0</v>
       </c>
       <c r="R196">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S196">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T196">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>21902</v>
       </c>
@@ -12162,11 +13733,19 @@
         <v>0</v>
       </c>
       <c r="R197">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S197">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T197">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>21903</v>
       </c>
@@ -12219,11 +13798,19 @@
         <v>0</v>
       </c>
       <c r="R198">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S198">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T198">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>21905</v>
       </c>
@@ -12276,11 +13863,19 @@
         <v>0</v>
       </c>
       <c r="R199">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T199">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>21906</v>
       </c>
@@ -12333,11 +13928,19 @@
         <v>0</v>
       </c>
       <c r="R200">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T200">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>21944</v>
       </c>
@@ -12390,11 +13993,19 @@
         <v>0</v>
       </c>
       <c r="R201">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S201">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T201">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>22051</v>
       </c>
@@ -12447,11 +14058,19 @@
         <v>0</v>
       </c>
       <c r="R202">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S202">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T202">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>22052</v>
       </c>
@@ -12504,11 +14123,19 @@
         <v>0</v>
       </c>
       <c r="R203">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S203">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T203">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>22836</v>
       </c>
@@ -12561,11 +14188,19 @@
         <v>0</v>
       </c>
       <c r="R204">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S204">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>59134</v>
       </c>
@@ -12618,11 +14253,19 @@
         <v>0</v>
       </c>
       <c r="R205">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S205">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T205">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>75535</v>
       </c>
@@ -12675,11 +14318,19 @@
         <v>10850</v>
       </c>
       <c r="R206">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S206">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T206">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>135535</v>
       </c>
@@ -12732,11 +14383,19 @@
         <v>0</v>
       </c>
       <c r="R207">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S207">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T207">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>139234</v>
       </c>
@@ -12789,11 +14448,19 @@
         <v>7000</v>
       </c>
       <c r="R208">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S208">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T208">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>150934</v>
       </c>
@@ -12846,11 +14513,19 @@
         <v>0</v>
       </c>
       <c r="R209">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S209">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T209">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>154835</v>
       </c>
@@ -12903,11 +14578,19 @@
         <v>0</v>
       </c>
       <c r="R210">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S210">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T210">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>157134</v>
       </c>
@@ -12960,11 +14643,19 @@
         <v>0</v>
       </c>
       <c r="R211">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S211">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T211">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>162636</v>
       </c>
@@ -13017,11 +14708,19 @@
         <v>0</v>
       </c>
       <c r="R212">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S212">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T212">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>182236</v>
       </c>
@@ -13074,11 +14773,19 @@
         <v>3470</v>
       </c>
       <c r="R213">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S213">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T213">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>182636</v>
       </c>
@@ -13131,11 +14838,19 @@
         <v>0</v>
       </c>
       <c r="R214">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S214">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T214">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>187234</v>
       </c>
@@ -13188,11 +14903,19 @@
         <v>0</v>
       </c>
       <c r="R215">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>191834</v>
       </c>
@@ -13245,11 +14968,19 @@
         <v>100</v>
       </c>
       <c r="R216">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S216">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T216">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>197134</v>
       </c>
@@ -13302,11 +15033,19 @@
         <v>0</v>
       </c>
       <c r="R217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S217">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T217">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>223034</v>
       </c>
@@ -13359,11 +15098,19 @@
         <v>0</v>
       </c>
       <c r="R218">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S218">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T218">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>297034</v>
       </c>
@@ -13416,11 +15163,19 @@
         <v>4350</v>
       </c>
       <c r="R219">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S219">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T219">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>300734</v>
       </c>
@@ -13473,11 +15228,19 @@
         <v>0</v>
       </c>
       <c r="R220">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S220">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T220">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>302136</v>
       </c>
@@ -13530,11 +15293,19 @@
         <v>0</v>
       </c>
       <c r="R221">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S221">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T221">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>320936</v>
       </c>
@@ -13587,11 +15358,19 @@
         <v>310</v>
       </c>
       <c r="R222">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>351534</v>
       </c>
@@ -13644,11 +15423,19 @@
         <v>0</v>
       </c>
       <c r="R223">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>362834</v>
       </c>
@@ -13701,11 +15488,19 @@
         <v>0</v>
       </c>
       <c r="R224">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T224">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>371734</v>
       </c>
@@ -13758,11 +15553,19 @@
         <v>0</v>
       </c>
       <c r="R225">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>397534</v>
       </c>
@@ -13815,11 +15618,19 @@
         <v>850</v>
       </c>
       <c r="R226">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>424835</v>
       </c>
@@ -13872,11 +15683,19 @@
         <v>4800</v>
       </c>
       <c r="R227">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>427434</v>
       </c>
@@ -13929,11 +15748,19 @@
         <v>7000</v>
       </c>
       <c r="R228">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>438736</v>
       </c>
@@ -13986,11 +15813,19 @@
         <v>0</v>
       </c>
       <c r="R229">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>443337</v>
       </c>
@@ -14043,11 +15878,19 @@
         <v>0</v>
       </c>
       <c r="R230">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>456834</v>
       </c>
@@ -14100,11 +15943,19 @@
         <v>850</v>
       </c>
       <c r="R231">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>466634</v>
       </c>
@@ -14157,11 +16008,19 @@
         <v>0</v>
       </c>
       <c r="R232">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>474335</v>
       </c>
@@ -14214,11 +16073,19 @@
         <v>0</v>
       </c>
       <c r="R233">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>476534</v>
       </c>
@@ -14271,11 +16138,19 @@
         <v>16840</v>
       </c>
       <c r="R234">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S234">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T234">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>484736</v>
       </c>
@@ -14328,11 +16203,19 @@
         <v>0</v>
       </c>
       <c r="R235">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S235">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T235">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>487134</v>
       </c>
@@ -14385,11 +16268,19 @@
         <v>850</v>
       </c>
       <c r="R236">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S236">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T236">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>496934</v>
       </c>
@@ -14442,11 +16333,19 @@
         <v>0</v>
       </c>
       <c r="R237">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S237">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T237">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>505534</v>
       </c>
@@ -14499,11 +16398,19 @@
         <v>7850</v>
       </c>
       <c r="R238">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S238">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T238">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>515834</v>
       </c>
@@ -14556,11 +16463,19 @@
         <v>0</v>
       </c>
       <c r="R239">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S239">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T239">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>534235</v>
       </c>
@@ -14613,11 +16528,19 @@
         <v>0</v>
       </c>
       <c r="R240">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S240">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T240">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>536834</v>
       </c>
@@ -14670,11 +16593,19 @@
         <v>0</v>
       </c>
       <c r="R241">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S241">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T241">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>583337</v>
       </c>
@@ -14727,11 +16658,19 @@
         <v>7500</v>
       </c>
       <c r="R242">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S242">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T242">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>597234</v>
       </c>
@@ -14784,11 +16723,19 @@
         <v>7850</v>
       </c>
       <c r="R243">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S243">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T243">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>598834</v>
       </c>
@@ -14841,11 +16788,19 @@
         <v>3200</v>
       </c>
       <c r="R244">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S244">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T244">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>645035</v>
       </c>
@@ -14898,11 +16853,19 @@
         <v>0</v>
       </c>
       <c r="R245">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S245">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T245">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>682934</v>
       </c>
@@ -14955,11 +16918,19 @@
         <v>0</v>
       </c>
       <c r="R246">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S246">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T246">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>695934</v>
       </c>
@@ -15012,11 +16983,19 @@
         <v>0</v>
       </c>
       <c r="R247">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S247">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T247">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>706036</v>
       </c>
@@ -15069,11 +17048,19 @@
         <v>0</v>
       </c>
       <c r="R248">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S248">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T248">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>715436</v>
       </c>
@@ -15126,11 +17113,19 @@
         <v>0</v>
       </c>
       <c r="R249">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S249">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T249">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>716535</v>
       </c>
@@ -15183,11 +17178,19 @@
         <v>5380</v>
       </c>
       <c r="R250">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S250">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T250">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>725334</v>
       </c>
@@ -15240,11 +17243,19 @@
         <v>0</v>
       </c>
       <c r="R251">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S251">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T251">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>764135</v>
       </c>
@@ -15297,11 +17308,19 @@
         <v>0</v>
       </c>
       <c r="R252">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S252">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T252">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>797034</v>
       </c>
@@ -15354,11 +17373,19 @@
         <v>0</v>
       </c>
       <c r="R253">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S253">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T253">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>798536</v>
       </c>
@@ -15411,11 +17438,19 @@
         <v>0</v>
       </c>
       <c r="R254">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S254">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T254">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>815434</v>
       </c>
@@ -15468,11 +17503,19 @@
         <v>7500</v>
       </c>
       <c r="R255">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S255">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T255">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>817134</v>
       </c>
@@ -15525,11 +17568,19 @@
         <v>0</v>
       </c>
       <c r="R256">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S256">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T256">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>834236</v>
       </c>
@@ -15582,11 +17633,19 @@
         <v>0</v>
       </c>
       <c r="R257">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S257">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T257">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>847735</v>
       </c>
@@ -15639,11 +17698,19 @@
         <v>0</v>
       </c>
       <c r="R258">
-        <f t="shared" ref="R258:R321" si="4">IF(H258&lt;G258,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R258:S321" si="8">IF(H258&lt;G258,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S258">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T258">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>856535</v>
       </c>
@@ -15696,11 +17763,19 @@
         <v>7000</v>
       </c>
       <c r="R259">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S259">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T259">
+        <f t="shared" ref="T259:T322" si="9">SUM(R259:S259)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>876834</v>
       </c>
@@ -15753,11 +17828,19 @@
         <v>0</v>
       </c>
       <c r="R260">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S260">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T260">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>878135</v>
       </c>
@@ -15810,11 +17893,19 @@
         <v>0</v>
       </c>
       <c r="R261">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S261">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T261">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>880934</v>
       </c>
@@ -15867,11 +17958,19 @@
         <v>0</v>
       </c>
       <c r="R262">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S262">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T262">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>904935</v>
       </c>
@@ -15924,11 +18023,19 @@
         <v>0</v>
       </c>
       <c r="R263">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S263">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T263">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>947835</v>
       </c>
@@ -15981,11 +18088,19 @@
         <v>0</v>
       </c>
       <c r="R264">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S264">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T264">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>949636</v>
       </c>
@@ -16038,11 +18153,19 @@
         <v>0</v>
       </c>
       <c r="R265">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S265">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T265">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>949645</v>
       </c>
@@ -16095,11 +18218,19 @@
         <v>33220</v>
       </c>
       <c r="R266">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S266">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T266">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>949715</v>
       </c>
@@ -16152,11 +18283,19 @@
         <v>8700</v>
       </c>
       <c r="R267">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S267">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T267">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>949793</v>
       </c>
@@ -16209,11 +18348,19 @@
         <v>7500</v>
       </c>
       <c r="R268">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S268">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T268">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>949820</v>
       </c>
@@ -16266,11 +18413,19 @@
         <v>0</v>
       </c>
       <c r="R269">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S269">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T269">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>949823</v>
       </c>
@@ -16323,11 +18478,19 @@
         <v>7500</v>
       </c>
       <c r="R270">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S270">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T270">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>949886</v>
       </c>
@@ -16380,11 +18543,19 @@
         <v>0</v>
       </c>
       <c r="R271">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S271">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T271">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>949887</v>
       </c>
@@ -16437,11 +18608,19 @@
         <v>0</v>
       </c>
       <c r="R272">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S272">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T272">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>949894</v>
       </c>
@@ -16494,11 +18673,19 @@
         <v>0</v>
       </c>
       <c r="R273">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S273">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T273">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>949898</v>
       </c>
@@ -16551,11 +18738,19 @@
         <v>0</v>
       </c>
       <c r="R274">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S274">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T274">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>949912</v>
       </c>
@@ -16608,11 +18803,19 @@
         <v>0</v>
       </c>
       <c r="R275">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S275">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T275">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>949914</v>
       </c>
@@ -16665,11 +18868,19 @@
         <v>0</v>
       </c>
       <c r="R276">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S276">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T276">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>950160</v>
       </c>
@@ -16722,11 +18933,19 @@
         <v>0</v>
       </c>
       <c r="R277">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S277">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T277">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>950183</v>
       </c>
@@ -16779,11 +18998,19 @@
         <v>0</v>
       </c>
       <c r="R278">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S278">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T278">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>950193</v>
       </c>
@@ -16836,11 +19063,19 @@
         <v>0</v>
       </c>
       <c r="R279">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S279">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T279">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>950198</v>
       </c>
@@ -16893,11 +19128,19 @@
         <v>0</v>
       </c>
       <c r="R280">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S280">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T280">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>950261</v>
       </c>
@@ -16950,11 +19193,19 @@
         <v>0</v>
       </c>
       <c r="R281">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S281">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T281">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>950336</v>
       </c>
@@ -17007,11 +19258,19 @@
         <v>0</v>
       </c>
       <c r="R282">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S282">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T282">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>950338</v>
       </c>
@@ -17064,11 +19323,19 @@
         <v>0</v>
       </c>
       <c r="R283">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S283">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T283">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>950346</v>
       </c>
@@ -17121,11 +19388,19 @@
         <v>7500</v>
       </c>
       <c r="R284">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S284">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T284">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>950740</v>
       </c>
@@ -17178,11 +19453,19 @@
         <v>0</v>
       </c>
       <c r="R285">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S285">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T285">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>950835</v>
       </c>
@@ -17235,11 +19518,19 @@
         <v>0</v>
       </c>
       <c r="R286">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S286">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T286">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>950839</v>
       </c>
@@ -17292,11 +19583,19 @@
         <v>0</v>
       </c>
       <c r="R287">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S287">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T287">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>950841</v>
       </c>
@@ -17349,11 +19648,19 @@
         <v>0</v>
       </c>
       <c r="R288">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S288">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T288">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>950858</v>
       </c>
@@ -17406,11 +19713,19 @@
         <v>0</v>
       </c>
       <c r="R289">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S289">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T289">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>950859</v>
       </c>
@@ -17463,11 +19778,19 @@
         <v>0</v>
       </c>
       <c r="R290">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S290">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T290">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>950861</v>
       </c>
@@ -17520,11 +19843,19 @@
         <v>0</v>
       </c>
       <c r="R291">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S291">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T291">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>950865</v>
       </c>
@@ -17577,11 +19908,19 @@
         <v>0</v>
       </c>
       <c r="R292">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S292">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T292">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>950906</v>
       </c>
@@ -17634,11 +19973,19 @@
         <v>0</v>
       </c>
       <c r="R293">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S293">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T293">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>950916</v>
       </c>
@@ -17691,11 +20038,19 @@
         <v>0</v>
       </c>
       <c r="R294">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S294">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T294">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>950918</v>
       </c>
@@ -17748,11 +20103,19 @@
         <v>0</v>
       </c>
       <c r="R295">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S295">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T295">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>950919</v>
       </c>
@@ -17805,11 +20168,19 @@
         <v>0</v>
       </c>
       <c r="R296">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S296">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T296">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>950920</v>
       </c>
@@ -17862,11 +20233,19 @@
         <v>0</v>
       </c>
       <c r="R297">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S297">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T297">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>950921</v>
       </c>
@@ -17919,11 +20298,19 @@
         <v>0</v>
       </c>
       <c r="R298">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S298">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T298">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>950923</v>
       </c>
@@ -17976,11 +20363,19 @@
         <v>0</v>
       </c>
       <c r="R299">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S299">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T299">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>950924</v>
       </c>
@@ -18033,11 +20428,19 @@
         <v>0</v>
       </c>
       <c r="R300">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S300">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T300">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>950925</v>
       </c>
@@ -18090,11 +20493,19 @@
         <v>0</v>
       </c>
       <c r="R301">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S301">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T301">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>950926</v>
       </c>
@@ -18147,11 +20558,19 @@
         <v>0</v>
       </c>
       <c r="R302">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S302">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T302">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>950927</v>
       </c>
@@ -18204,11 +20623,19 @@
         <v>0</v>
       </c>
       <c r="R303">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S303">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T303">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>950928</v>
       </c>
@@ -18261,11 +20688,19 @@
         <v>0</v>
       </c>
       <c r="R304">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S304">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T304">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>950929</v>
       </c>
@@ -18318,11 +20753,19 @@
         <v>0</v>
       </c>
       <c r="R305">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S305">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T305">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>951112</v>
       </c>
@@ -18375,11 +20818,19 @@
         <v>6500</v>
       </c>
       <c r="R306">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S306">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T306">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>951114</v>
       </c>
@@ -18432,11 +20883,19 @@
         <v>6500</v>
       </c>
       <c r="R307">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S307">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T307">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>951149</v>
       </c>
@@ -18489,11 +20948,19 @@
         <v>0</v>
       </c>
       <c r="R308">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S308">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T308">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>951160</v>
       </c>
@@ -18546,11 +21013,19 @@
         <v>7500</v>
       </c>
       <c r="R309">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S309">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T309">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>951165</v>
       </c>
@@ -18603,11 +21078,19 @@
         <v>0</v>
       </c>
       <c r="R310">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S310">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T310">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>951173</v>
       </c>
@@ -18660,11 +21143,19 @@
         <v>0</v>
       </c>
       <c r="R311">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S311">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T311">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>951176</v>
       </c>
@@ -18717,11 +21208,19 @@
         <v>0</v>
       </c>
       <c r="R312">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S312">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T312">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>951184</v>
       </c>
@@ -18774,11 +21273,19 @@
         <v>7500</v>
       </c>
       <c r="R313">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S313">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T313">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>951198</v>
       </c>
@@ -18831,11 +21338,19 @@
         <v>0</v>
       </c>
       <c r="R314">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S314">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T314">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>951214</v>
       </c>
@@ -18888,11 +21403,19 @@
         <v>0</v>
       </c>
       <c r="R315">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S315">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T315">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>951339</v>
       </c>
@@ -18945,11 +21468,18 @@
         <v>1040</v>
       </c>
       <c r="R316">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S316">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>951342</v>
       </c>
@@ -19002,11 +21532,19 @@
         <v>11020</v>
       </c>
       <c r="R317">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S317">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T317">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>951442</v>
       </c>
@@ -19059,11 +21597,19 @@
         <v>0</v>
       </c>
       <c r="R318">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S318">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T318">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>951443</v>
       </c>
@@ -19116,11 +21662,19 @@
         <v>0</v>
       </c>
       <c r="R319">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S319">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T319">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>951449</v>
       </c>
@@ -19173,11 +21727,19 @@
         <v>0</v>
       </c>
       <c r="R320">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S320">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T320">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>951595</v>
       </c>
@@ -19230,11 +21792,19 @@
         <v>0</v>
       </c>
       <c r="R321">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S321">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T321">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>951612</v>
       </c>
@@ -19287,11 +21857,19 @@
         <v>0</v>
       </c>
       <c r="R322">
-        <f t="shared" ref="R322:R361" si="5">IF(H322&lt;G322,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R322:S361" si="10">IF(H322&lt;G322,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S322">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T322">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>951637</v>
       </c>
@@ -19344,11 +21922,19 @@
         <v>0</v>
       </c>
       <c r="R323">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S323">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T323">
+        <f t="shared" ref="T323:T361" si="11">SUM(R323:S323)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>951752</v>
       </c>
@@ -19401,11 +21987,19 @@
         <v>0</v>
       </c>
       <c r="R324">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S324">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T324">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>952040</v>
       </c>
@@ -19458,11 +22052,19 @@
         <v>0</v>
       </c>
       <c r="R325">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S325">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T325">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>952163</v>
       </c>
@@ -19515,11 +22117,19 @@
         <v>7500</v>
       </c>
       <c r="R326">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S326">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T326">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>952164</v>
       </c>
@@ -19572,11 +22182,19 @@
         <v>7500</v>
       </c>
       <c r="R327">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S327">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T327">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>952166</v>
       </c>
@@ -19629,11 +22247,19 @@
         <v>7500</v>
       </c>
       <c r="R328">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S328">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T328">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>952238</v>
       </c>
@@ -19686,11 +22312,19 @@
         <v>0</v>
       </c>
       <c r="R329">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S329">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T329">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>952554</v>
       </c>
@@ -19743,11 +22377,19 @@
         <v>0</v>
       </c>
       <c r="R330">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S330">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T330">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>952610</v>
       </c>
@@ -19800,11 +22442,19 @@
         <v>0</v>
       </c>
       <c r="R331">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S331">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T331">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>952611</v>
       </c>
@@ -19857,11 +22507,19 @@
         <v>0</v>
       </c>
       <c r="R332">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S332">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T332">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>952612</v>
       </c>
@@ -19914,11 +22572,19 @@
         <v>0</v>
       </c>
       <c r="R333">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S333">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T333">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>952803</v>
       </c>
@@ -19971,11 +22637,19 @@
         <v>0</v>
       </c>
       <c r="R334">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S334">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T334">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>952839</v>
       </c>
@@ -20028,11 +22702,19 @@
         <v>0</v>
       </c>
       <c r="R335">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S335">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T335">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>952840</v>
       </c>
@@ -20085,11 +22767,19 @@
         <v>0</v>
       </c>
       <c r="R336">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S336">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T336">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>952841</v>
       </c>
@@ -20142,11 +22832,19 @@
         <v>0</v>
       </c>
       <c r="R337">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S337">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T337">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>952844</v>
       </c>
@@ -20199,11 +22897,19 @@
         <v>0</v>
       </c>
       <c r="R338">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S338">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T338">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>952845</v>
       </c>
@@ -20256,11 +22962,19 @@
         <v>0</v>
       </c>
       <c r="R339">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S339">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T339">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>952846</v>
       </c>
@@ -20313,11 +23027,19 @@
         <v>0</v>
       </c>
       <c r="R340">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S340">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T340">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>952847</v>
       </c>
@@ -20370,11 +23092,19 @@
         <v>0</v>
       </c>
       <c r="R341">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S341">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T341">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>953282</v>
       </c>
@@ -20427,11 +23157,19 @@
         <v>0</v>
       </c>
       <c r="R342">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S342">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T342">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>953360</v>
       </c>
@@ -20484,11 +23222,19 @@
         <v>7500</v>
       </c>
       <c r="R343">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S343">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T343">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>953361</v>
       </c>
@@ -20541,11 +23287,19 @@
         <v>7500</v>
       </c>
       <c r="R344">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S344">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T344">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>953364</v>
       </c>
@@ -20598,11 +23352,19 @@
         <v>7500</v>
       </c>
       <c r="R345">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S345">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T345">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>953365</v>
       </c>
@@ -20655,11 +23417,19 @@
         <v>7500</v>
       </c>
       <c r="R346">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S346">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T346">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>953956</v>
       </c>
@@ -20712,11 +23482,19 @@
         <v>0</v>
       </c>
       <c r="R347">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S347">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T347">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>953962</v>
       </c>
@@ -20769,11 +23547,19 @@
         <v>0</v>
       </c>
       <c r="R348">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S348">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T348">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>953963</v>
       </c>
@@ -20826,11 +23612,19 @@
         <v>0</v>
       </c>
       <c r="R349">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S349">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T349">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>954018</v>
       </c>
@@ -20883,11 +23677,19 @@
         <v>0</v>
       </c>
       <c r="R350">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S350">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T350">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>954020</v>
       </c>
@@ -20940,11 +23742,19 @@
         <v>0</v>
       </c>
       <c r="R351">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S351">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T351">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>954021</v>
       </c>
@@ -20997,11 +23807,19 @@
         <v>0</v>
       </c>
       <c r="R352">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S352">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T352">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>954022</v>
       </c>
@@ -21054,11 +23872,19 @@
         <v>0</v>
       </c>
       <c r="R353">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S353">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T353">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>954023</v>
       </c>
@@ -21111,11 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R354">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S354">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T354">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>954046</v>
       </c>
@@ -21168,11 +24002,19 @@
         <v>0</v>
       </c>
       <c r="R355">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S355">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T355">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>954146</v>
       </c>
@@ -21225,11 +24067,19 @@
         <v>0</v>
       </c>
       <c r="R356">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S356">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T356">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>954157</v>
       </c>
@@ -21282,11 +24132,19 @@
         <v>0</v>
       </c>
       <c r="R357">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S357">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T357">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>954158</v>
       </c>
@@ -21339,11 +24197,19 @@
         <v>10000</v>
       </c>
       <c r="R358">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S358">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T358">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>954237</v>
       </c>
@@ -21396,11 +24262,19 @@
         <v>0</v>
       </c>
       <c r="R359">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S359">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T359">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>954834</v>
       </c>
@@ -21453,11 +24327,19 @@
         <v>10000</v>
       </c>
       <c r="R360">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S360">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T360">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>955019</v>
       </c>
@@ -21510,7 +24392,15 @@
         <v>0</v>
       </c>
       <c r="R361">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S361">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T361">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
